--- a/medicine/Psychotrope/Brasserie_de_Saint-Omer/Brasserie_de_Saint-Omer.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Saint-Omer/Brasserie_de_Saint-Omer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie de Saint-Omer est une brasserie française installée à Saint-Omer, dans le département du Pas-de-Calais en région Nord-Pas-de-Calais. 
@@ -513,9 +525,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production de la brasserie de Saint-Omer est d'environ deux millions d'hectolitres de bière par an, ce qui fait d'elle la première brasserie indépendante de France. Chaque année, elle produit près de 700 millions de bouteilles, 90 millions de boites et 25 000 fûts. Elle brasse une trentaine de bières pour près de 200 références et emploie 160 personnes[1]. Elle exporte 40 % de sa production[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production de la brasserie de Saint-Omer est d'environ deux millions d'hectolitres de bière par an, ce qui fait d'elle la première brasserie indépendante de France. Chaque année, elle produit près de 700 millions de bouteilles, 90 millions de boites et 25 000 fûts. Elle brasse une trentaine de bières pour près de 200 références et emploie 160 personnes. Elle exporte 40 % de sa production.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1866.
 En 1950, après plusieurs rachats et fusions, elle prend le nom de brasserie Artésienne. Sa production est alors de 45 000 hectolitres par an.
@@ -580,7 +596,9 @@
           <t>Quelques bières produites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Saint-Omer (blonde, 5 %) ;
 Saint-Omer Bière Bock (blonde, 4 %) ;j
@@ -595,7 +613,7 @@
 Bière Perlembourg Bio (bière blonde bio, 5,5%). Bière vendue par Lidl
 Bière Falsbourg (bière blonde, 4,2 %). Bière vendue par E. Leclerc
 Bière Cartouche (bière blonde, 5,2%). Bière vendue en exclusivité au Network Bar
-Bières Karlsquell (bières blondes, 4,7%, 7,8% et 10%). Bière vendue par Aldi [3]
+Bières Karlsquell (bières blondes, 4,7%, 7,8% et 10%). Bière vendue par Aldi 
 Nain de Crespin (bière blonde aromatisée, 7%)</t>
         </is>
       </c>
